--- a/results/nli-cv/combined/train/train_cv_results-AmazonHelp-inbound.xlsx
+++ b/results/nli-cv/combined/train/train_cv_results-AmazonHelp-inbound.xlsx
@@ -1073,16 +1073,16 @@
         <v>0.8899999999999999</v>
       </c>
       <c r="E3">
-        <v>0.701150914042909</v>
+        <v>0.7105566438901676</v>
       </c>
       <c r="F3">
-        <v>0.8385093167701864</v>
+        <v>0.84472049689441</v>
       </c>
       <c r="G3">
-        <v>0.8678571428571429</v>
+        <v>0.8726190476190476</v>
       </c>
       <c r="H3">
-        <v>0.8059701492537313</v>
+        <v>0.81203007518797</v>
       </c>
       <c r="I3">
         <v>56</v>
@@ -1099,19 +1099,19 @@
         <v>20</v>
       </c>
       <c r="D4">
-        <v>0.8699999999999999</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="E4">
-        <v>0.693959824023049</v>
+        <v>0.7062792057696399</v>
       </c>
       <c r="F4">
-        <v>0.8385093167701864</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G4">
-        <v>0.8636904761904762</v>
+        <v>0.8654761904761905</v>
       </c>
       <c r="H4">
-        <v>0.8030303030303029</v>
+        <v>0.8130081300813009</v>
       </c>
       <c r="I4">
         <v>56</v>
@@ -1186,19 +1186,19 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>0.9299999999999999</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="E7">
-        <v>0.7280440075456132</v>
+        <v>0.7257747386024231</v>
       </c>
       <c r="F7">
-        <v>0.8695652173913043</v>
+        <v>0.84472049689441</v>
       </c>
       <c r="G7">
-        <v>0.875</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="H7">
-        <v>0.8264462809917357</v>
+        <v>0.8175182481751825</v>
       </c>
       <c r="I7">
         <v>56</v>
@@ -1247,16 +1247,16 @@
         <v>0.96</v>
       </c>
       <c r="E9">
-        <v>0.7200826979224436</v>
+        <v>0.7297339432334067</v>
       </c>
       <c r="F9">
-        <v>0.8509316770186336</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G9">
-        <v>0.8773809523809524</v>
+        <v>0.8821428571428571</v>
       </c>
       <c r="H9">
-        <v>0.8181818181818182</v>
+        <v>0.8244274809160306</v>
       </c>
       <c r="I9">
         <v>56</v>
@@ -1273,7 +1273,7 @@
         <v>26</v>
       </c>
       <c r="D10">
-        <v>0.9869999999999999</v>
+        <v>0.9879999999999999</v>
       </c>
       <c r="E10">
         <v>0.7171641829528165</v>
@@ -1302,19 +1302,19 @@
         <v>27</v>
       </c>
       <c r="D11">
-        <v>0.9399999999999998</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="E11">
-        <v>0.4780438853119585</v>
+        <v>0.4833028932697497</v>
       </c>
       <c r="F11">
         <v>0.7577639751552795</v>
       </c>
       <c r="G11">
-        <v>0.743452380952381</v>
+        <v>0.7476190476190476</v>
       </c>
       <c r="H11">
-        <v>0.6666666666666667</v>
+        <v>0.6722689075630252</v>
       </c>
       <c r="I11">
         <v>56</v>
@@ -1331,7 +1331,7 @@
         <v>28</v>
       </c>
       <c r="D12">
-        <v>0.983</v>
+        <v>0.984</v>
       </c>
       <c r="E12">
         <v>0.6548355529369543</v>
@@ -1363,16 +1363,16 @@
         <v>0.984</v>
       </c>
       <c r="E13">
-        <v>0.6324555320336759</v>
+        <v>0.6428378995075054</v>
       </c>
       <c r="F13">
-        <v>0.8198757763975155</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="G13">
-        <v>0.8285714285714285</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="H13">
-        <v>0.7679999999999999</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="I13">
         <v>56</v>
@@ -1389,7 +1389,7 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>0.9099999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="E14">
         <v>0.7105566438901676</v>
@@ -1447,19 +1447,19 @@
         <v>32</v>
       </c>
       <c r="D16">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="E16">
-        <v>0.7220447121253945</v>
+        <v>0.7232365005304007</v>
       </c>
       <c r="F16">
-        <v>0.8633540372670807</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="G16">
-        <v>0.8744047619047619</v>
+        <v>0.8779761904761905</v>
       </c>
       <c r="H16">
-        <v>0.8225806451612904</v>
+        <v>0.8217054263565892</v>
       </c>
       <c r="I16">
         <v>56</v>
@@ -1476,19 +1476,19 @@
         <v>33</v>
       </c>
       <c r="D17">
-        <v>0.9399999999999998</v>
+        <v>0.95</v>
       </c>
       <c r="E17">
-        <v>0.7462055718218382</v>
+        <v>0.739515442696458</v>
       </c>
       <c r="F17">
         <v>0.8633540372670807</v>
       </c>
       <c r="G17">
-        <v>0.8910714285714285</v>
+        <v>0.8869047619047619</v>
       </c>
       <c r="H17">
-        <v>0.8333333333333334</v>
+        <v>0.8307692307692307</v>
       </c>
       <c r="I17">
         <v>56</v>
@@ -1595,16 +1595,16 @@
         <v>0.9800000000000001</v>
       </c>
       <c r="E21">
-        <v>0.7537460954110887</v>
+        <v>0.7642171012073584</v>
       </c>
       <c r="F21">
-        <v>0.8757763975155279</v>
+        <v>0.8819875776397516</v>
       </c>
       <c r="G21">
-        <v>0.8922619047619047</v>
+        <v>0.8970238095238094</v>
       </c>
       <c r="H21">
-        <v>0.8412698412698413</v>
+        <v>0.848</v>
       </c>
       <c r="I21">
         <v>56</v>
@@ -1621,19 +1621,19 @@
         <v>38</v>
       </c>
       <c r="D22">
-        <v>0.9890000000000001</v>
+        <v>0.984</v>
       </c>
       <c r="E22">
-        <v>0.7434297501628718</v>
+        <v>0.739515442696458</v>
       </c>
       <c r="F22">
-        <v>0.8695652173913043</v>
+        <v>0.8633540372670807</v>
       </c>
       <c r="G22">
-        <v>0.8875</v>
+        <v>0.8869047619047619</v>
       </c>
       <c r="H22">
-        <v>0.8346456692913385</v>
+        <v>0.8307692307692307</v>
       </c>
       <c r="I22">
         <v>56</v>
@@ -1679,7 +1679,7 @@
         <v>40</v>
       </c>
       <c r="D24">
-        <v>0.9869999999999999</v>
+        <v>0.986</v>
       </c>
       <c r="E24">
         <v>0.6905616064262978</v>
@@ -1711,16 +1711,16 @@
         <v>0.99</v>
       </c>
       <c r="E25">
-        <v>0.690898615742761</v>
+        <v>0.7011325591608458</v>
       </c>
       <c r="F25">
-        <v>0.84472049689441</v>
+        <v>0.8509316770186336</v>
       </c>
       <c r="G25">
-        <v>0.8601190476190477</v>
+        <v>0.8648809523809524</v>
       </c>
       <c r="H25">
-        <v>0.8031496062992126</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="I25">
         <v>56</v>
@@ -1740,16 +1740,16 @@
         <v>0.75</v>
       </c>
       <c r="E26">
-        <v>0.4319590636366079</v>
+        <v>0.4203283205791415</v>
       </c>
       <c r="F26">
-        <v>0.7453416149068323</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="G26">
-        <v>0.713095238095238</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="H26">
-        <v>0.6238532110091742</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="I26">
         <v>56</v>
@@ -1769,16 +1769,16 @@
         <v>0.9</v>
       </c>
       <c r="E27">
-        <v>0.5860609970472885</v>
+        <v>0.6035797512472938</v>
       </c>
       <c r="F27">
-        <v>0.7701863354037267</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="G27">
-        <v>0.8071428571428572</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="H27">
-        <v>0.7375886524822696</v>
+        <v>0.7482014388489209</v>
       </c>
       <c r="I27">
         <v>56</v>
@@ -1798,16 +1798,16 @@
         <v>0.8799999999999999</v>
       </c>
       <c r="E28">
-        <v>0.5599381231478938</v>
+        <v>0.5686723300143354</v>
       </c>
       <c r="F28">
-        <v>0.7577639751552795</v>
+        <v>0.7639751552795031</v>
       </c>
       <c r="G28">
-        <v>0.793452380952381</v>
+        <v>0.7982142857142858</v>
       </c>
       <c r="H28">
-        <v>0.7234042553191489</v>
+        <v>0.7285714285714285</v>
       </c>
       <c r="I28">
         <v>56</v>
@@ -1856,16 +1856,16 @@
         <v>0.982</v>
       </c>
       <c r="E30">
-        <v>0.5967724608196927</v>
+        <v>0.6061297888775551</v>
       </c>
       <c r="F30">
-        <v>0.7888198757763976</v>
+        <v>0.7950310559006211</v>
       </c>
       <c r="G30">
-        <v>0.8130952380952381</v>
+        <v>0.8178571428571428</v>
       </c>
       <c r="H30">
-        <v>0.746268656716418</v>
+        <v>0.7518796992481204</v>
       </c>
       <c r="I30">
         <v>56</v>
@@ -1943,16 +1943,16 @@
         <v>0.993</v>
       </c>
       <c r="E33">
-        <v>0.5467321288088296</v>
+        <v>0.5563431561208738</v>
       </c>
       <c r="F33">
-        <v>0.7701863354037267</v>
+        <v>0.7763975155279503</v>
       </c>
       <c r="G33">
-        <v>0.7863095238095238</v>
+        <v>0.7910714285714286</v>
       </c>
       <c r="H33">
-        <v>0.7175572519083969</v>
+        <v>0.723076923076923</v>
       </c>
       <c r="I33">
         <v>56</v>
@@ -2001,16 +2001,16 @@
         <v>0.9879999999999999</v>
       </c>
       <c r="E35">
-        <v>0.3705132314031561</v>
+        <v>0.3811153367289081</v>
       </c>
       <c r="F35">
-        <v>0.7080745341614907</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G35">
-        <v>0.6886904761904762</v>
+        <v>0.6934523809523809</v>
       </c>
       <c r="H35">
-        <v>0.5982905982905983</v>
+        <v>0.603448275862069</v>
       </c>
       <c r="I35">
         <v>56</v>
@@ -2027,19 +2027,19 @@
         <v>52</v>
       </c>
       <c r="D36">
-        <v>0.9960000000000001</v>
+        <v>0.993</v>
       </c>
       <c r="E36">
-        <v>0.5685677011308599</v>
+        <v>0.5728752451551977</v>
       </c>
       <c r="F36">
-        <v>0.7950310559006211</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="G36">
-        <v>0.7928571428571429</v>
+        <v>0.8</v>
       </c>
       <c r="H36">
-        <v>0.7272727272727272</v>
+        <v>0.732824427480916</v>
       </c>
       <c r="I36">
         <v>56</v>
@@ -2059,16 +2059,16 @@
         <v>0.99</v>
       </c>
       <c r="E37">
-        <v>0.5435830431298417</v>
+        <v>0.5519420560998398</v>
       </c>
       <c r="F37">
-        <v>0.7391304347826086</v>
+        <v>0.7453416149068323</v>
       </c>
       <c r="G37">
-        <v>0.7833333333333333</v>
+        <v>0.7880952380952382</v>
       </c>
       <c r="H37">
-        <v>0.7123287671232876</v>
+        <v>0.7172413793103448</v>
       </c>
       <c r="I37">
         <v>56</v>
@@ -2143,19 +2143,19 @@
         <v>56</v>
       </c>
       <c r="D40">
-        <v>0.82</v>
+        <v>0.73</v>
       </c>
       <c r="E40">
-        <v>0.65082772887552</v>
+        <v>0.6533657799302206</v>
       </c>
       <c r="F40">
-        <v>0.8385093167701864</v>
+        <v>0.8322981366459627</v>
       </c>
       <c r="G40">
-        <v>0.8303571428571428</v>
+        <v>0.838095238095238</v>
       </c>
       <c r="H40">
-        <v>0.7758620689655172</v>
+        <v>0.7804878048780487</v>
       </c>
       <c r="I40">
         <v>56</v>
@@ -2201,7 +2201,7 @@
         <v>58</v>
       </c>
       <c r="D42">
-        <v>0.85</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="E42">
         <v>0.9649242286953353</v>
@@ -2230,7 +2230,7 @@
         <v>59</v>
       </c>
       <c r="D43">
-        <v>0.986</v>
+        <v>0.9869999999999999</v>
       </c>
       <c r="E43">
         <v>0.9649242286953353</v>
@@ -2259,19 +2259,19 @@
         <v>60</v>
       </c>
       <c r="D44">
-        <v>0.9199999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="E44">
-        <v>0.7000107197916522</v>
+        <v>0.7214955851564441</v>
       </c>
       <c r="F44">
         <v>0.9440993788819876</v>
       </c>
       <c r="G44">
-        <v>0.8794520547945206</v>
+        <v>0.9093607305936073</v>
       </c>
       <c r="H44">
-        <v>0.7272727272727272</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="I44">
         <v>15</v>
@@ -2291,16 +2291,16 @@
         <v>0.9099999999999999</v>
       </c>
       <c r="E45">
-        <v>0.681257841745461</v>
+        <v>0.7007063190166716</v>
       </c>
       <c r="F45">
-        <v>0.9316770186335404</v>
+        <v>0.937888198757764</v>
       </c>
       <c r="G45">
-        <v>0.9025114155251142</v>
+        <v>0.9059360730593607</v>
       </c>
       <c r="H45">
-        <v>0.7027027027027029</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="I45">
         <v>15</v>
@@ -2375,19 +2375,19 @@
         <v>64</v>
       </c>
       <c r="D48">
-        <v>0.9299999999999999</v>
+        <v>0.9399999999999998</v>
       </c>
       <c r="E48">
-        <v>0.80568496882546</v>
+        <v>0.8276058886023681</v>
       </c>
       <c r="F48">
-        <v>0.9565217391304348</v>
+        <v>0.9627329192546584</v>
       </c>
       <c r="G48">
-        <v>0.976027397260274</v>
+        <v>0.9794520547945205</v>
       </c>
       <c r="H48">
-        <v>0.8108108108108109</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="I48">
         <v>15</v>
@@ -2407,16 +2407,16 @@
         <v>0.7</v>
       </c>
       <c r="E49">
-        <v>0.2747403604084489</v>
+        <v>0.2820354870505813</v>
       </c>
       <c r="F49">
-        <v>0.7826086956521739</v>
+        <v>0.7888198757763976</v>
       </c>
       <c r="G49">
-        <v>0.7006849315068493</v>
+        <v>0.7041095890410959</v>
       </c>
       <c r="H49">
-        <v>0.339622641509434</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="I49">
         <v>15</v>
@@ -2433,7 +2433,7 @@
         <v>66</v>
       </c>
       <c r="D50">
-        <v>0.9399999999999998</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="E50">
         <v>0.8529680365296803</v>
@@ -2520,7 +2520,7 @@
         <v>69</v>
       </c>
       <c r="D53">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="E53">
         <v>0.962800149036199</v>
@@ -2639,16 +2639,16 @@
         <v>0.93</v>
       </c>
       <c r="E57">
-        <v>0.1255024424502952</v>
+        <v>0.1270832513422418</v>
       </c>
       <c r="F57">
-        <v>0.4720496894409938</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="G57">
-        <v>0.7310126582278481</v>
+        <v>0.7341772151898734</v>
       </c>
       <c r="H57">
-        <v>0.06593406593406592</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="I57">
         <v>3</v>
@@ -2755,16 +2755,16 @@
         <v>0.98</v>
       </c>
       <c r="E61">
-        <v>0.2002557216167969</v>
+        <v>0.1891677495563162</v>
       </c>
       <c r="F61">
-        <v>0.8571428571428571</v>
+        <v>0.84472049689441</v>
       </c>
       <c r="G61">
-        <v>0.7637130801687764</v>
+        <v>0.7573839662447257</v>
       </c>
       <c r="H61">
-        <v>0.1481481481481481</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="I61">
         <v>3</v>
@@ -2781,19 +2781,19 @@
         <v>78</v>
       </c>
       <c r="D62">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="E62">
-        <v>0.3206751054852321</v>
+        <v>0.2401133923769039</v>
       </c>
       <c r="F62">
-        <v>0.9751552795031055</v>
+        <v>0.9627329192546584</v>
       </c>
       <c r="G62">
-        <v>0.6603375527426161</v>
+        <v>0.6540084388185654</v>
       </c>
       <c r="H62">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="I62">
         <v>3</v>
@@ -2871,16 +2871,16 @@
         <v>0.9700000000000001</v>
       </c>
       <c r="E65">
-        <v>0.235738642623161</v>
+        <v>0.2319428126811227</v>
       </c>
       <c r="F65">
-        <v>0.7639751552795031</v>
+        <v>0.7577639751552795</v>
       </c>
       <c r="G65">
-        <v>0.879746835443038</v>
+        <v>0.8765822784810127</v>
       </c>
       <c r="H65">
-        <v>0.1363636363636364</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I65">
         <v>3</v>
@@ -3042,19 +3042,19 @@
         <v>87</v>
       </c>
       <c r="D71">
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="E71">
-        <v>0.4639606920528527</v>
+        <v>0.4821502276493432</v>
       </c>
       <c r="F71">
-        <v>0.8881987577639752</v>
+        <v>0.906832298136646</v>
       </c>
       <c r="G71">
-        <v>0.7216312056737588</v>
+        <v>0.6679078014184396</v>
       </c>
       <c r="H71">
-        <v>0.5263157894736842</v>
+        <v>0.4827586206896551</v>
       </c>
       <c r="I71">
         <v>20</v>
@@ -3103,16 +3103,16 @@
         <v>0.97</v>
       </c>
       <c r="E73">
-        <v>0.2881115655986037</v>
+        <v>0.2839217729555168</v>
       </c>
       <c r="F73">
-        <v>0.5403726708074534</v>
+        <v>0.5341614906832298</v>
       </c>
       <c r="G73">
-        <v>0.7161347517730496</v>
+        <v>0.7125886524822695</v>
       </c>
       <c r="H73">
-        <v>0.3392857142857143</v>
+        <v>0.336283185840708</v>
       </c>
       <c r="I73">
         <v>20</v>
@@ -3129,19 +3129,19 @@
         <v>90</v>
       </c>
       <c r="D74">
-        <v>0.992</v>
+        <v>0.9970000000000001</v>
       </c>
       <c r="E74">
-        <v>0.4382023238137204</v>
+        <v>0.4821502276493432</v>
       </c>
       <c r="F74">
-        <v>0.8695652173913043</v>
+        <v>0.906832298136646</v>
       </c>
       <c r="G74">
-        <v>0.7324468085106384</v>
+        <v>0.6679078014184396</v>
       </c>
       <c r="H74">
-        <v>0.5116279069767442</v>
+        <v>0.4827586206896551</v>
       </c>
       <c r="I74">
         <v>20</v>
@@ -3216,19 +3216,19 @@
         <v>93</v>
       </c>
       <c r="D77">
-        <v>0.992</v>
+        <v>0.9970000000000001</v>
       </c>
       <c r="E77">
-        <v>0.370610970361947</v>
+        <v>0.3327812877436583</v>
       </c>
       <c r="F77">
-        <v>0.7391304347826086</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="G77">
-        <v>0.7652482269503547</v>
+        <v>0.6466312056737589</v>
       </c>
       <c r="H77">
-        <v>0.4324324324324325</v>
+        <v>0.4</v>
       </c>
       <c r="I77">
         <v>20</v>
@@ -3274,19 +3274,19 @@
         <v>95</v>
       </c>
       <c r="D79">
-        <v>0.993</v>
+        <v>0.994</v>
       </c>
       <c r="E79">
-        <v>0.3985167042312304</v>
+        <v>0.3905946266701467</v>
       </c>
       <c r="F79">
-        <v>0.7142857142857143</v>
+        <v>0.7329192546583851</v>
       </c>
       <c r="G79">
-        <v>0.7939716312056737</v>
+        <v>0.7831560283687944</v>
       </c>
       <c r="H79">
-        <v>0.4390243902439024</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="I79">
         <v>20</v>
@@ -3506,19 +3506,19 @@
         <v>103</v>
       </c>
       <c r="D87">
-        <v>0.8799999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="E87">
-        <v>0.8444006618414982</v>
+        <v>0.8057527367417902</v>
       </c>
       <c r="F87">
-        <v>0.9813664596273292</v>
+        <v>0.9751552795031055</v>
       </c>
       <c r="G87">
-        <v>0.9901960784313726</v>
+        <v>0.9869281045751634</v>
       </c>
       <c r="H87">
-        <v>0.8421052631578948</v>
+        <v>0.8</v>
       </c>
       <c r="I87">
         <v>8</v>
@@ -3535,19 +3535,19 @@
         <v>104</v>
       </c>
       <c r="D88">
-        <v>0.9399999999999998</v>
+        <v>0.8299999999999998</v>
       </c>
       <c r="E88">
-        <v>0.7701361315267427</v>
+        <v>0.7409585736349484</v>
       </c>
       <c r="F88">
-        <v>0.9751552795031055</v>
+        <v>0.9627329192546584</v>
       </c>
       <c r="G88">
-        <v>0.9276960784313726</v>
+        <v>0.9803921568627452</v>
       </c>
       <c r="H88">
-        <v>0.7777777777777777</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="I88">
         <v>8</v>
@@ -3564,19 +3564,19 @@
         <v>105</v>
       </c>
       <c r="D89">
-        <v>0.986</v>
+        <v>0.985</v>
       </c>
       <c r="E89">
-        <v>0.8684640522875817</v>
+        <v>0.8153023648593936</v>
       </c>
       <c r="F89">
-        <v>0.9875776397515528</v>
+        <v>0.9813664596273292</v>
       </c>
       <c r="G89">
-        <v>0.9342320261437909</v>
+        <v>0.9309640522875817</v>
       </c>
       <c r="H89">
-        <v>0.875</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I89">
         <v>8</v>
@@ -3593,19 +3593,19 @@
         <v>106</v>
       </c>
       <c r="D90">
-        <v>0.991</v>
+        <v>0.993</v>
       </c>
       <c r="E90">
-        <v>0.5586169079196946</v>
+        <v>0.618157194742919</v>
       </c>
       <c r="F90">
-        <v>0.9627329192546584</v>
+        <v>0.968944099378882</v>
       </c>
       <c r="G90">
-        <v>0.7434640522875817</v>
+        <v>0.7467320261437909</v>
       </c>
       <c r="H90">
-        <v>0.5714285714285715</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="I90">
         <v>8</v>
@@ -3622,7 +3622,7 @@
         <v>107</v>
       </c>
       <c r="D91">
-        <v>0.983</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="E91">
         <v>0.8057527367417902</v>
@@ -3651,19 +3651,19 @@
         <v>108</v>
       </c>
       <c r="D92">
-        <v>0.992</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="E92">
-        <v>0.8885620314081233</v>
+        <v>0.8684640522875817</v>
       </c>
       <c r="F92">
         <v>0.9875776397515528</v>
       </c>
       <c r="G92">
-        <v>0.9934640522875817</v>
+        <v>0.9342320261437909</v>
       </c>
       <c r="H92">
-        <v>0.888888888888889</v>
+        <v>0.875</v>
       </c>
       <c r="I92">
         <v>8</v>
@@ -3680,19 +3680,19 @@
         <v>109</v>
       </c>
       <c r="D93">
-        <v>0.993</v>
+        <v>0.9890000000000001</v>
       </c>
       <c r="E93">
-        <v>0.9323723407620915</v>
+        <v>0.8153023648593936</v>
       </c>
       <c r="F93">
-        <v>0.9937888198757764</v>
+        <v>0.9813664596273292</v>
       </c>
       <c r="G93">
-        <v>0.9375</v>
+        <v>0.9309640522875817</v>
       </c>
       <c r="H93">
-        <v>0.9333333333333333</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I93">
         <v>8</v>
@@ -3738,19 +3738,19 @@
         <v>111</v>
       </c>
       <c r="D95">
-        <v>0.994</v>
+        <v>0.993</v>
       </c>
       <c r="E95">
-        <v>0.9323723407620915</v>
+        <v>0.8684640522875817</v>
       </c>
       <c r="F95">
-        <v>0.9937888198757764</v>
+        <v>0.9875776397515528</v>
       </c>
       <c r="G95">
-        <v>0.9375</v>
+        <v>0.9342320261437909</v>
       </c>
       <c r="H95">
-        <v>0.9333333333333333</v>
+        <v>0.875</v>
       </c>
       <c r="I95">
         <v>8</v>
@@ -3770,16 +3770,16 @@
         <v>0.9970000000000001</v>
       </c>
       <c r="E96">
-        <v>0.8885620314081233</v>
+        <v>0.9397229153260878</v>
       </c>
       <c r="F96">
-        <v>0.9875776397515528</v>
+        <v>0.9937888198757764</v>
       </c>
       <c r="G96">
-        <v>0.9934640522875817</v>
+        <v>0.9967320261437909</v>
       </c>
       <c r="H96">
-        <v>0.888888888888889</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="I96">
         <v>8</v>
@@ -3796,19 +3796,19 @@
         <v>113</v>
       </c>
       <c r="D97">
-        <v>0.9949999999999999</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="E97">
-        <v>0.9323723407620915</v>
+        <v>0.8057527367417902</v>
       </c>
       <c r="F97">
-        <v>0.9937888198757764</v>
+        <v>0.9751552795031055</v>
       </c>
       <c r="G97">
-        <v>0.9375</v>
+        <v>0.9869281045751634</v>
       </c>
       <c r="H97">
-        <v>0.9333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="I97">
         <v>8</v>
@@ -3825,7 +3825,7 @@
         <v>102</v>
       </c>
       <c r="D98">
-        <v>0.9800000000000001</v>
+        <v>0.9810000000000001</v>
       </c>
       <c r="E98">
         <v>0.4738562091503268</v>
@@ -3854,19 +3854,19 @@
         <v>114</v>
       </c>
       <c r="D99">
-        <v>0.9099999999999998</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="E99">
-        <v>0.5048959689021197</v>
+        <v>0.3912338148111515</v>
       </c>
       <c r="F99">
-        <v>0.9751552795031055</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="G99">
-        <v>0.8238396624472574</v>
+        <v>0.8143459915611815</v>
       </c>
       <c r="H99">
-        <v>0.5</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="I99">
         <v>3</v>
@@ -3912,19 +3912,19 @@
         <v>116</v>
       </c>
       <c r="D101">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E101">
-        <v>0.6026051040212032</v>
+        <v>0.5354520153659837</v>
       </c>
       <c r="F101">
-        <v>0.968944099378882</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="G101">
-        <v>0.9841772151898734</v>
+        <v>0.9778481012658228</v>
       </c>
       <c r="H101">
-        <v>0.5454545454545454</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="I101">
         <v>3</v>
@@ -3941,19 +3941,19 @@
         <v>117</v>
       </c>
       <c r="D102">
-        <v>0.96</v>
+        <v>0.9700000000000001</v>
       </c>
       <c r="E102">
-        <v>0.6463137929731515</v>
+        <v>0.7003615702720446</v>
       </c>
       <c r="F102">
-        <v>0.9751552795031055</v>
+        <v>0.9813664596273292</v>
       </c>
       <c r="G102">
-        <v>0.9873417721518987</v>
+        <v>0.990506329113924</v>
       </c>
       <c r="H102">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I102">
         <v>3</v>
@@ -3970,19 +3970,19 @@
         <v>118</v>
       </c>
       <c r="D103">
-        <v>0.993</v>
+        <v>0.9860000000000001</v>
       </c>
       <c r="E103">
-        <v>0.6026051040212032</v>
+        <v>0.5354520153659837</v>
       </c>
       <c r="F103">
-        <v>0.968944099378882</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="G103">
-        <v>0.9841772151898734</v>
+        <v>0.9778481012658228</v>
       </c>
       <c r="H103">
-        <v>0.5454545454545454</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="I103">
         <v>3</v>
@@ -3999,19 +3999,19 @@
         <v>119</v>
       </c>
       <c r="D104">
-        <v>0.992</v>
+        <v>0.98</v>
       </c>
       <c r="E104">
-        <v>0.7003615702720446</v>
+        <v>0.5662818251411854</v>
       </c>
       <c r="F104">
-        <v>0.9813664596273292</v>
+        <v>0.9627329192546584</v>
       </c>
       <c r="G104">
-        <v>0.990506329113924</v>
+        <v>0.9810126582278481</v>
       </c>
       <c r="H104">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="I104">
         <v>3</v>
@@ -4028,19 +4028,19 @@
         <v>120</v>
       </c>
       <c r="D105">
-        <v>0.995</v>
+        <v>0.999</v>
       </c>
       <c r="E105">
-        <v>0.3267884510312453</v>
+        <v>0.3206751054852321</v>
       </c>
       <c r="F105">
-        <v>0.937888198757764</v>
+        <v>0.9751552795031055</v>
       </c>
       <c r="G105">
-        <v>0.8048523206751055</v>
+        <v>0.6603375527426161</v>
       </c>
       <c r="H105">
-        <v>0.2857142857142858</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -4057,7 +4057,7 @@
         <v>121</v>
       </c>
       <c r="D106">
-        <v>0.992</v>
+        <v>0.995</v>
       </c>
       <c r="E106">
         <v>0.4578707900273151</v>
@@ -4086,19 +4086,19 @@
         <v>122</v>
       </c>
       <c r="D107">
-        <v>0.93</v>
+        <v>0.9099999999999998</v>
       </c>
       <c r="E107">
-        <v>0.6026051040212032</v>
+        <v>0.5662818251411854</v>
       </c>
       <c r="F107">
-        <v>0.968944099378882</v>
+        <v>0.9627329192546584</v>
       </c>
       <c r="G107">
-        <v>0.9841772151898734</v>
+        <v>0.9810126582278481</v>
       </c>
       <c r="H107">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="I107">
         <v>3</v>
@@ -4115,7 +4115,7 @@
         <v>123</v>
       </c>
       <c r="D108">
-        <v>0.991</v>
+        <v>0.9899999999999999</v>
       </c>
       <c r="E108">
         <v>0.7003615702720446</v>
@@ -4144,7 +4144,7 @@
         <v>124</v>
       </c>
       <c r="D109">
-        <v>0.984</v>
+        <v>0.985</v>
       </c>
       <c r="E109">
         <v>0.7003615702720446</v>
@@ -4231,7 +4231,7 @@
         <v>127</v>
       </c>
       <c r="D112">
-        <v>0.992</v>
+        <v>0.9940000000000001</v>
       </c>
       <c r="E112">
         <v>0.6463137929731515</v>
@@ -4289,19 +4289,19 @@
         <v>129</v>
       </c>
       <c r="D114">
-        <v>0.997</v>
+        <v>0.989</v>
       </c>
       <c r="E114">
-        <v>0.5048959689021197</v>
+        <v>0.3451478774544531</v>
       </c>
       <c r="F114">
-        <v>0.9751552795031055</v>
+        <v>0.9440993788819876</v>
       </c>
       <c r="G114">
-        <v>0.8238396624472574</v>
+        <v>0.8080168776371308</v>
       </c>
       <c r="H114">
-        <v>0.5</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="I114">
         <v>3</v>
@@ -4318,19 +4318,19 @@
         <v>130</v>
       </c>
       <c r="D115">
-        <v>0.8099999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="E115">
-        <v>0.5354520153659837</v>
+        <v>0.5662818251411854</v>
       </c>
       <c r="F115">
-        <v>0.9565217391304348</v>
+        <v>0.9627329192546584</v>
       </c>
       <c r="G115">
-        <v>0.9778481012658228</v>
+        <v>0.9810126582278481</v>
       </c>
       <c r="H115">
-        <v>0.4615384615384615</v>
+        <v>0.5</v>
       </c>
       <c r="I115">
         <v>3</v>
@@ -4347,7 +4347,7 @@
         <v>131</v>
       </c>
       <c r="D116">
-        <v>0.9819999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="E116">
         <v>0.6026051040212032</v>
@@ -4376,7 +4376,7 @@
         <v>132</v>
       </c>
       <c r="D117">
-        <v>0.9700000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="E117">
         <v>0.5662818251411854</v>
@@ -4405,19 +4405,19 @@
         <v>133</v>
       </c>
       <c r="D118">
-        <v>0.992</v>
+        <v>0.991</v>
       </c>
       <c r="E118">
-        <v>0.7003615702720446</v>
+        <v>0.6463137929731515</v>
       </c>
       <c r="F118">
-        <v>0.9813664596273292</v>
+        <v>0.9751552795031055</v>
       </c>
       <c r="G118">
-        <v>0.990506329113924</v>
+        <v>0.9873417721518987</v>
       </c>
       <c r="H118">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="I118">
         <v>3</v>
@@ -4434,19 +4434,19 @@
         <v>134</v>
       </c>
       <c r="D119">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
       <c r="E119">
-        <v>0.7696785454273356</v>
+        <v>0.6463137929731515</v>
       </c>
       <c r="F119">
-        <v>0.9875776397515528</v>
+        <v>0.9751552795031055</v>
       </c>
       <c r="G119">
-        <v>0.9936708860759493</v>
+        <v>0.9873417721518987</v>
       </c>
       <c r="H119">
-        <v>0.7499999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="I119">
         <v>3</v>
@@ -4521,19 +4521,19 @@
         <v>137</v>
       </c>
       <c r="D122">
-        <v>0.997</v>
+        <v>0.995</v>
       </c>
       <c r="E122">
-        <v>0.6026051040212032</v>
+        <v>0.5354520153659837</v>
       </c>
       <c r="F122">
-        <v>0.968944099378882</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="G122">
-        <v>0.9841772151898734</v>
+        <v>0.9778481012658228</v>
       </c>
       <c r="H122">
-        <v>0.5454545454545454</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="I122">
         <v>3</v>
@@ -4550,19 +4550,19 @@
         <v>138</v>
       </c>
       <c r="D123">
-        <v>0.7200000000000001</v>
+        <v>0.9979999999999999</v>
       </c>
       <c r="E123">
-        <v>0.6026051040212032</v>
+        <v>0.8139249317653724</v>
       </c>
       <c r="F123">
-        <v>0.968944099378882</v>
+        <v>0.9937888198757764</v>
       </c>
       <c r="G123">
-        <v>0.9841772151898734</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="H123">
-        <v>0.5454545454545454</v>
+        <v>0.8</v>
       </c>
       <c r="I123">
         <v>3</v>
@@ -4608,19 +4608,19 @@
         <v>140</v>
       </c>
       <c r="D125">
-        <v>0.9099999999999998</v>
+        <v>0.93</v>
       </c>
       <c r="E125">
-        <v>0.5088401486645687</v>
+        <v>0.6026051040212032</v>
       </c>
       <c r="F125">
-        <v>0.9503105590062112</v>
+        <v>0.968944099378882</v>
       </c>
       <c r="G125">
-        <v>0.9746835443037974</v>
+        <v>0.9841772151898734</v>
       </c>
       <c r="H125">
-        <v>0.4285714285714285</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="I125">
         <v>3</v>
@@ -4695,7 +4695,7 @@
         <v>143</v>
       </c>
       <c r="D128">
-        <v>0.982</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="E128">
         <v>0.7646198830409356</v>
@@ -4724,19 +4724,19 @@
         <v>144</v>
       </c>
       <c r="D129">
-        <v>0.9879999999999999</v>
+        <v>0.991</v>
       </c>
       <c r="E129">
-        <v>0.6000550160999607</v>
+        <v>0.596579524400096</v>
       </c>
       <c r="F129">
-        <v>0.9316770186335404</v>
+        <v>0.9440993788819876</v>
       </c>
       <c r="G129">
-        <v>0.9115497076023391</v>
+        <v>0.8658625730994152</v>
       </c>
       <c r="H129">
-        <v>0.5925925925925926</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="I129">
         <v>9</v>
@@ -4753,19 +4753,19 @@
         <v>145</v>
       </c>
       <c r="D130">
-        <v>0.994</v>
+        <v>0.992</v>
       </c>
       <c r="E130">
-        <v>0.442040713459311</v>
+        <v>0.3627533914898542</v>
       </c>
       <c r="F130">
-        <v>0.9440993788819876</v>
+        <v>0.9254658385093167</v>
       </c>
       <c r="G130">
-        <v>0.7090643274853801</v>
+        <v>0.6991959064327485</v>
       </c>
       <c r="H130">
-        <v>0.4705882352941176</v>
+        <v>0.4</v>
       </c>
       <c r="I130">
         <v>9</v>
@@ -4811,19 +4811,19 @@
         <v>147</v>
       </c>
       <c r="D132">
-        <v>0.986</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="E132">
-        <v>0.754492976600406</v>
+        <v>0.7217907506737694</v>
       </c>
       <c r="F132">
-        <v>0.968944099378882</v>
+        <v>0.9627329192546584</v>
       </c>
       <c r="G132">
-        <v>0.9312865497076024</v>
+        <v>0.9279970760233918</v>
       </c>
       <c r="H132">
-        <v>0.761904761904762</v>
+        <v>0.7272727272727274</v>
       </c>
       <c r="I132">
         <v>9</v>
@@ -4869,19 +4869,19 @@
         <v>149</v>
       </c>
       <c r="D134">
-        <v>0.9890000000000001</v>
+        <v>0.993</v>
       </c>
       <c r="E134">
-        <v>0.5641208576932125</v>
+        <v>0.6000550160999607</v>
       </c>
       <c r="F134">
-        <v>0.9192546583850931</v>
+        <v>0.9316770186335404</v>
       </c>
       <c r="G134">
-        <v>0.9049707602339181</v>
+        <v>0.9115497076023391</v>
       </c>
       <c r="H134">
-        <v>0.5517241379310346</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="I134">
         <v>9</v>
@@ -4898,7 +4898,7 @@
         <v>150</v>
       </c>
       <c r="D135">
-        <v>0.9970000000000001</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="E135">
         <v>0.5798777863597728</v>
@@ -4927,7 +4927,7 @@
         <v>151</v>
       </c>
       <c r="D136">
-        <v>0.8899999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="E136">
         <v>0.5486059101043631</v>
@@ -4956,7 +4956,7 @@
         <v>152</v>
       </c>
       <c r="D137">
-        <v>0.982</v>
+        <v>0.984</v>
       </c>
       <c r="E137">
         <v>0.5292397660818714</v>
@@ -4985,19 +4985,19 @@
         <v>153</v>
       </c>
       <c r="D138">
-        <v>0.9800000000000001</v>
+        <v>0.994</v>
       </c>
       <c r="E138">
-        <v>0.5480005300149683</v>
+        <v>0.6469298245614035</v>
       </c>
       <c r="F138">
-        <v>0.9130434782608695</v>
+        <v>0.9627329192546584</v>
       </c>
       <c r="G138">
-        <v>0.9016812865497076</v>
+        <v>0.8234649122807017</v>
       </c>
       <c r="H138">
-        <v>0.5333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I138">
         <v>9</v>
@@ -5014,19 +5014,19 @@
         <v>154</v>
       </c>
       <c r="D139">
-        <v>0.9960000000000001</v>
+        <v>0.994</v>
       </c>
       <c r="E139">
-        <v>0.5517806630180705</v>
+        <v>0.5322432979202453</v>
       </c>
       <c r="F139">
-        <v>0.9316770186335404</v>
+        <v>0.9254658385093167</v>
       </c>
       <c r="G139">
-        <v>0.8592836257309941</v>
+        <v>0.8559941520467836</v>
       </c>
       <c r="H139">
-        <v>0.5600000000000001</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="I139">
         <v>9</v>
@@ -5046,16 +5046,16 @@
         <v>0.993</v>
       </c>
       <c r="E140">
-        <v>0.5142567411513873</v>
+        <v>0.4976154672075981</v>
       </c>
       <c r="F140">
-        <v>0.9192546583850931</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="G140">
-        <v>0.8527046783625731</v>
+        <v>0.8494152046783625</v>
       </c>
       <c r="H140">
-        <v>0.5185185185185185</v>
+        <v>0.5</v>
       </c>
       <c r="I140">
         <v>9</v>
@@ -5072,19 +5072,19 @@
         <v>156</v>
       </c>
       <c r="D141">
-        <v>0.993</v>
+        <v>0.992</v>
       </c>
       <c r="E141">
-        <v>0.6842394246817801</v>
+        <v>0.6515494433523845</v>
       </c>
       <c r="F141">
-        <v>0.9627329192546584</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="G141">
-        <v>0.8757309941520468</v>
+        <v>0.8724415204678362</v>
       </c>
       <c r="H141">
-        <v>0.7000000000000001</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I141">
         <v>9</v>
@@ -5101,7 +5101,7 @@
         <v>157</v>
       </c>
       <c r="D142">
-        <v>0.983</v>
+        <v>0.984</v>
       </c>
       <c r="E142">
         <v>0.6842394246817801</v>
@@ -5130,7 +5130,7 @@
         <v>158</v>
       </c>
       <c r="D143">
-        <v>0.985</v>
+        <v>0.986</v>
       </c>
       <c r="E143">
         <v>0.7082005278281703</v>
@@ -5188,19 +5188,19 @@
         <v>160</v>
       </c>
       <c r="D145">
-        <v>0.8699999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="E145">
-        <v>0.7747035322714795</v>
+        <v>0.7738446564475157</v>
       </c>
       <c r="F145">
-        <v>0.9627329192546584</v>
+        <v>0.968944099378882</v>
       </c>
       <c r="G145">
-        <v>0.9801324503311258</v>
+        <v>0.9367549668874172</v>
       </c>
       <c r="H145">
-        <v>0.7692307692307693</v>
+        <v>0.7826086956521738</v>
       </c>
       <c r="I145">
         <v>10</v>
@@ -5246,7 +5246,7 @@
         <v>162</v>
       </c>
       <c r="D147">
-        <v>0.9</v>
+        <v>0.9099999999999999</v>
       </c>
       <c r="E147">
         <v>0.7035239684666336</v>
@@ -5304,19 +5304,19 @@
         <v>164</v>
       </c>
       <c r="D149">
-        <v>0.85</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="E149">
-        <v>0.7738446564475157</v>
+        <v>0.7867549668874172</v>
       </c>
       <c r="F149">
-        <v>0.968944099378882</v>
+        <v>0.9751552795031055</v>
       </c>
       <c r="G149">
-        <v>0.9367549668874172</v>
+        <v>0.8933774834437087</v>
       </c>
       <c r="H149">
-        <v>0.7826086956521738</v>
+        <v>0.8000000000000002</v>
       </c>
       <c r="I149">
         <v>10</v>
@@ -5333,7 +5333,7 @@
         <v>165</v>
       </c>
       <c r="D150">
-        <v>0.9099999999999999</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="E150">
         <v>0.7747035322714795</v>
@@ -5362,7 +5362,7 @@
         <v>166</v>
       </c>
       <c r="D151">
-        <v>0.99</v>
+        <v>0.9879999999999999</v>
       </c>
       <c r="E151">
         <v>0.8335377929728249</v>
@@ -5391,7 +5391,7 @@
         <v>167</v>
       </c>
       <c r="D152">
-        <v>0.9890000000000001</v>
+        <v>0.9869999999999999</v>
       </c>
       <c r="E152">
         <v>0.8088216172627257</v>
@@ -5420,19 +5420,19 @@
         <v>168</v>
       </c>
       <c r="D153">
-        <v>0.8299999999999998</v>
+        <v>0.85</v>
       </c>
       <c r="E153">
-        <v>0.4306283082833189</v>
+        <v>0.4487243402366536</v>
       </c>
       <c r="F153">
-        <v>0.9130434782608695</v>
+        <v>0.9192546583850931</v>
       </c>
       <c r="G153">
-        <v>0.766887417218543</v>
+        <v>0.7701986754966887</v>
       </c>
       <c r="H153">
-        <v>0.4615384615384615</v>
+        <v>0.48</v>
       </c>
       <c r="I153">
         <v>10</v>
@@ -5449,7 +5449,7 @@
         <v>169</v>
       </c>
       <c r="D154">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="E154">
         <v>0.6517102316453619</v>
@@ -5507,7 +5507,7 @@
         <v>171</v>
       </c>
       <c r="D156">
-        <v>0.9399999999999998</v>
+        <v>0.96</v>
       </c>
       <c r="E156">
         <v>0.7747035322714795</v>
@@ -5536,7 +5536,7 @@
         <v>172</v>
       </c>
       <c r="D157">
-        <v>0.992</v>
+        <v>0.993</v>
       </c>
       <c r="E157">
         <v>0.7701361315267427</v>
@@ -5594,19 +5594,19 @@
         <v>174</v>
       </c>
       <c r="D159">
-        <v>0.9879999999999999</v>
+        <v>0.983</v>
       </c>
       <c r="E159">
-        <v>0.7108379600924482</v>
+        <v>0.7143295563326141</v>
       </c>
       <c r="F159">
-        <v>0.9627329192546584</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="G159">
-        <v>0.8867549668874173</v>
+        <v>0.9301324503311259</v>
       </c>
       <c r="H159">
-        <v>0.7272727272727272</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="I159">
         <v>10</v>
@@ -5652,19 +5652,19 @@
         <v>176</v>
       </c>
       <c r="D161">
-        <v>0.9299999999999999</v>
+        <v>0.9399999999999998</v>
       </c>
       <c r="E161">
-        <v>0.2377739089157571</v>
+        <v>0.2012528237201422</v>
       </c>
       <c r="F161">
-        <v>0.7826086956521739</v>
+        <v>0.8322981366459627</v>
       </c>
       <c r="G161">
-        <v>0.7910256410256411</v>
+        <v>0.7198717948717949</v>
       </c>
       <c r="H161">
-        <v>0.186046511627907</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I161">
         <v>5</v>
@@ -5684,16 +5684,16 @@
         <v>0.9810000000000001</v>
       </c>
       <c r="E162">
-        <v>0.6615365862200858</v>
+        <v>0.5871794871794872</v>
       </c>
       <c r="F162">
-        <v>0.9813664596273292</v>
+        <v>0.9751552795031055</v>
       </c>
       <c r="G162">
-        <v>0.7967948717948719</v>
+        <v>0.7935897435897437</v>
       </c>
       <c r="H162">
-        <v>0.6666666666666665</v>
+        <v>0.6</v>
       </c>
       <c r="I162">
         <v>5</v>
@@ -5710,19 +5710,19 @@
         <v>178</v>
       </c>
       <c r="D163">
-        <v>0.994</v>
+        <v>0.993</v>
       </c>
       <c r="E163">
-        <v>0.4885638532419674</v>
+        <v>0.3989809144305148</v>
       </c>
       <c r="F163">
-        <v>0.9627329192546584</v>
+        <v>0.9440993788819876</v>
       </c>
       <c r="G163">
-        <v>0.7871794871794872</v>
+        <v>0.7775641025641026</v>
       </c>
       <c r="H163">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="I163">
         <v>5</v>
@@ -5739,19 +5739,19 @@
         <v>179</v>
       </c>
       <c r="D164">
-        <v>0.9949999999999999</v>
+        <v>0.993</v>
       </c>
       <c r="E164">
-        <v>0.1432975506915175</v>
+        <v>0.1278607221917613</v>
       </c>
       <c r="F164">
-        <v>0.8633540372670807</v>
+        <v>0.7267080745341615</v>
       </c>
       <c r="G164">
-        <v>0.6391025641025641</v>
+        <v>0.6653846153846154</v>
       </c>
       <c r="H164">
-        <v>0.1538461538461539</v>
+        <v>0.12</v>
       </c>
       <c r="I164">
         <v>5</v>
@@ -5768,19 +5768,19 @@
         <v>180</v>
       </c>
       <c r="D165">
-        <v>0.9879999999999999</v>
+        <v>0.983</v>
       </c>
       <c r="E165">
-        <v>0.3129862184831354</v>
+        <v>0.2758093817132375</v>
       </c>
       <c r="F165">
-        <v>0.9503105590062112</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="G165">
-        <v>0.683974358974359</v>
+        <v>0.8134615384615385</v>
       </c>
       <c r="H165">
-        <v>0.3333333333333333</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I165">
         <v>5</v>
@@ -5800,16 +5800,16 @@
         <v>0.95</v>
       </c>
       <c r="E166">
-        <v>0.4885638532419674</v>
+        <v>0.4533835054157502</v>
       </c>
       <c r="F166">
-        <v>0.9627329192546584</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="G166">
-        <v>0.7871794871794872</v>
+        <v>0.783974358974359</v>
       </c>
       <c r="H166">
-        <v>0.5</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="I166">
         <v>5</v>
@@ -5829,16 +5829,16 @@
         <v>0.9800000000000001</v>
       </c>
       <c r="E167">
-        <v>0.720907585928795</v>
+        <v>0.6641414880007994</v>
       </c>
       <c r="F167">
-        <v>0.9813664596273292</v>
+        <v>0.9751552795031055</v>
       </c>
       <c r="G167">
-        <v>0.8935897435897436</v>
+        <v>0.8903846153846153</v>
       </c>
       <c r="H167">
-        <v>0.7272727272727272</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I167">
         <v>5</v>
@@ -5858,16 +5858,16 @@
         <v>0.9949999999999999</v>
       </c>
       <c r="E168">
-        <v>0.5191896441165661</v>
+        <v>0.4945176406324552</v>
       </c>
       <c r="F168">
-        <v>0.9503105590062112</v>
+        <v>0.9440993788819876</v>
       </c>
       <c r="G168">
-        <v>0.8775641025641026</v>
+        <v>0.8743589743589744</v>
       </c>
       <c r="H168">
-        <v>0.5000000000000001</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="I168">
         <v>5</v>
@@ -5887,16 +5887,16 @@
         <v>0.9960000000000001</v>
       </c>
       <c r="E169">
-        <v>0.2674628398879962</v>
+        <v>0.2415142664173231</v>
       </c>
       <c r="F169">
-        <v>0.8881987577639752</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="G169">
-        <v>0.7487179487179487</v>
+        <v>0.7391025641025641</v>
       </c>
       <c r="H169">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="I169">
         <v>5</v>
@@ -5913,19 +5913,19 @@
         <v>185</v>
       </c>
       <c r="D170">
-        <v>0.9890000000000001</v>
+        <v>0.9879999999999999</v>
       </c>
       <c r="E170">
-        <v>0.3909832858205153</v>
+        <v>0.3186989245744122</v>
       </c>
       <c r="F170">
-        <v>0.906832298136646</v>
+        <v>0.8633540372670807</v>
       </c>
       <c r="G170">
-        <v>0.8551282051282052</v>
+        <v>0.8326923076923077</v>
       </c>
       <c r="H170">
-        <v>0.3478260869565218</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="I170">
         <v>5</v>
@@ -5942,19 +5942,19 @@
         <v>186</v>
       </c>
       <c r="D171">
-        <v>0.9</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="E171">
-        <v>0.26815717332497</v>
+        <v>0.2506300432450347</v>
       </c>
       <c r="F171">
-        <v>0.937888198757764</v>
+        <v>0.9316770186335404</v>
       </c>
       <c r="G171">
-        <v>0.6775641025641026</v>
+        <v>0.6743589743589744</v>
       </c>
       <c r="H171">
-        <v>0.2857142857142857</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="I171">
         <v>5</v>
@@ -5974,16 +5974,16 @@
         <v>0.993</v>
       </c>
       <c r="E172">
-        <v>0.3989809144305148</v>
+        <v>0.3581865787457681</v>
       </c>
       <c r="F172">
-        <v>0.9440993788819876</v>
+        <v>0.9316770186335404</v>
       </c>
       <c r="G172">
-        <v>0.7775641025641026</v>
+        <v>0.7711538461538461</v>
       </c>
       <c r="H172">
-        <v>0.4</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="I172">
         <v>5</v>
@@ -6000,19 +6000,19 @@
         <v>188</v>
       </c>
       <c r="D173">
-        <v>0.998</v>
+        <v>0.9970000000000001</v>
       </c>
       <c r="E173">
-        <v>0.1278607221917613</v>
+        <v>0.1394151113442295</v>
       </c>
       <c r="F173">
-        <v>0.7267080745341615</v>
+        <v>0.6024844720496895</v>
       </c>
       <c r="G173">
-        <v>0.6653846153846154</v>
+        <v>0.698076923076923</v>
       </c>
       <c r="H173">
-        <v>0.12</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I173">
         <v>5</v>
@@ -6058,19 +6058,19 @@
         <v>190</v>
       </c>
       <c r="D175">
-        <v>0.991</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="E175">
-        <v>0.1660672983412074</v>
+        <v>0.1022791720595546</v>
       </c>
       <c r="F175">
-        <v>0.7888198757763976</v>
+        <v>0.9192546583850931</v>
       </c>
       <c r="G175">
-        <v>0.6974358974358974</v>
+        <v>0.5711538461538461</v>
       </c>
       <c r="H175">
-        <v>0.15</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I175">
         <v>5</v>
@@ -6116,7 +6116,7 @@
         <v>192</v>
       </c>
       <c r="D177">
-        <v>0.9299999999999999</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="E177">
         <v>0.8112792969529936</v>
@@ -6145,19 +6145,19 @@
         <v>193</v>
       </c>
       <c r="D178">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="E178">
-        <v>0.6980409346856495</v>
+        <v>0.6615365862200858</v>
       </c>
       <c r="F178">
-        <v>0.9751552795031055</v>
+        <v>0.9813664596273292</v>
       </c>
       <c r="G178">
-        <v>0.9872611464968153</v>
+        <v>0.8686305732484076</v>
       </c>
       <c r="H178">
-        <v>0.6666666666666666</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="I178">
         <v>4</v>
@@ -6203,7 +6203,7 @@
         <v>195</v>
       </c>
       <c r="D180">
-        <v>0.995</v>
+        <v>0.994</v>
       </c>
       <c r="E180">
         <v>0.5624483934807593</v>
@@ -6261,19 +6261,19 @@
         <v>197</v>
       </c>
       <c r="D182">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="E182">
-        <v>0.6559650621597458</v>
+        <v>0.6980409346856495</v>
       </c>
       <c r="F182">
-        <v>0.968944099378882</v>
+        <v>0.9751552795031055</v>
       </c>
       <c r="G182">
-        <v>0.9840764331210191</v>
+        <v>0.9872611464968153</v>
       </c>
       <c r="H182">
-        <v>0.6153846153846153</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I182">
         <v>4</v>
@@ -6377,19 +6377,19 @@
         <v>201</v>
       </c>
       <c r="D186">
-        <v>0.983</v>
+        <v>0.997</v>
       </c>
       <c r="E186">
-        <v>0.517219415303485</v>
+        <v>0.6006083827442323</v>
       </c>
       <c r="F186">
-        <v>0.937888198757764</v>
+        <v>0.9751552795031055</v>
       </c>
       <c r="G186">
-        <v>0.9681528662420382</v>
+        <v>0.8654458598726115</v>
       </c>
       <c r="H186">
-        <v>0.4444444444444445</v>
+        <v>0.6</v>
       </c>
       <c r="I186">
         <v>4</v>
@@ -6406,7 +6406,7 @@
         <v>202</v>
       </c>
       <c r="D187">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="E187">
         <v>0.6980409346856495</v>
@@ -6435,19 +6435,19 @@
         <v>203</v>
       </c>
       <c r="D188">
-        <v>0.9299999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E188">
-        <v>0.6559650621597458</v>
+        <v>0.6980409346856495</v>
       </c>
       <c r="F188">
-        <v>0.968944099378882</v>
+        <v>0.9751552795031055</v>
       </c>
       <c r="G188">
-        <v>0.9840764331210191</v>
+        <v>0.9872611464968153</v>
       </c>
       <c r="H188">
-        <v>0.6153846153846153</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="I188">
         <v>4</v>
@@ -6464,7 +6464,7 @@
         <v>204</v>
       </c>
       <c r="D189">
-        <v>0.9299999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E189">
         <v>0.7486718601230632</v>
@@ -6493,7 +6493,7 @@
         <v>205</v>
       </c>
       <c r="D190">
-        <v>0.997</v>
+        <v>0.996</v>
       </c>
       <c r="E190">
         <v>0.5894262272410205</v>
@@ -6522,19 +6522,19 @@
         <v>206</v>
       </c>
       <c r="D191">
-        <v>0.993</v>
+        <v>0.986</v>
       </c>
       <c r="E191">
-        <v>0.4549204192419297</v>
+        <v>0.4238134429143376</v>
       </c>
       <c r="F191">
-        <v>0.9503105590062112</v>
+        <v>0.9006211180124224</v>
       </c>
       <c r="G191">
-        <v>0.8527070063694268</v>
+        <v>0.9490445859872612</v>
       </c>
       <c r="H191">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="I191">
         <v>4</v>
@@ -6580,7 +6580,7 @@
         <v>208</v>
       </c>
       <c r="D193">
-        <v>0.996</v>
+        <v>0.997</v>
       </c>
       <c r="E193">
         <v>0.6559650621597458</v>
